--- a/testdata/datasheet.xlsx
+++ b/testdata/datasheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="133">
   <si>
     <t>SerialNo</t>
   </si>
@@ -121,15 +121,310 @@
   </si>
   <si>
     <t>DODGE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>XEM</t>
+  </si>
+  <si>
+    <t>CLAM</t>
+  </si>
+  <si>
+    <t>SYS</t>
+  </si>
+  <si>
+    <t>SJCX</t>
+  </si>
+  <si>
+    <t>VNL</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>XCP</t>
+  </si>
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>QORA</t>
+  </si>
+  <si>
+    <t>DGB</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>GEMZ</t>
+  </si>
+  <si>
+    <t>NAUT</t>
+  </si>
+  <si>
+    <t>BCY</t>
+  </si>
+  <si>
+    <t>DIEM</t>
+  </si>
+  <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>XDN</t>
+  </si>
+  <si>
+    <t>HYP</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>MINT</t>
+  </si>
+  <si>
+    <t>RBY</t>
+  </si>
+  <si>
+    <t>BURST</t>
+  </si>
+  <si>
+    <t>SILK</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>FLO</t>
+  </si>
+  <si>
+    <t>FIBRE</t>
+  </si>
+  <si>
+    <t>XCR</t>
+  </si>
+  <si>
+    <t>XPM</t>
+  </si>
+  <si>
+    <t>VTC</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>NSR</t>
+  </si>
+  <si>
+    <t>BTCD</t>
+  </si>
+  <si>
+    <t>QTL</t>
+  </si>
+  <si>
+    <t>WDC</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>RIC</t>
+  </si>
+  <si>
+    <t>YACC</t>
+  </si>
+  <si>
+    <t>OMNI</t>
+  </si>
+  <si>
+    <t>XCH</t>
+  </si>
+  <si>
+    <t>XCN</t>
+  </si>
+  <si>
+    <t>XBC</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>LQD</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>VRC</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
+  <si>
+    <t>BBR</t>
+  </si>
+  <si>
+    <t>NMC</t>
+  </si>
+  <si>
+    <t>NOBL</t>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>BELA</t>
+  </si>
+  <si>
+    <t>HUC</t>
+  </si>
+  <si>
+    <t>XST</t>
+  </si>
+  <si>
+    <t>ABY</t>
+  </si>
+  <si>
+    <t>MRS</t>
+  </si>
+  <si>
+    <t>CURE</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>ARCH</t>
+  </si>
+  <si>
+    <t>QBK</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GRS</t>
+  </si>
+  <si>
+    <t>FLDC</t>
+  </si>
+  <si>
+    <t>XMG</t>
+  </si>
+  <si>
+    <t>CNMT</t>
+  </si>
+  <si>
+    <t>CGA</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>SWARM</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>FLT</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>EMC2</t>
+  </si>
+  <si>
+    <t>VIA</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>BITCNY</t>
+  </si>
+  <si>
+    <t>SYNC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>XPB</t>
+  </si>
+  <si>
+    <t>LTBC</t>
+  </si>
+  <si>
+    <t>BITS</t>
+  </si>
+  <si>
+    <t>1CR</t>
+  </si>
+  <si>
+    <t>PIGGY</t>
+  </si>
+  <si>
+    <t>PINK</t>
+  </si>
+  <si>
+    <t>NEOS</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>NOXT</t>
+  </si>
+  <si>
+    <t>ADN</t>
+  </si>
+  <si>
+    <t>BITUSD</t>
+  </si>
+  <si>
+    <t>MMC</t>
+  </si>
+  <si>
+    <t>MMNXT</t>
+  </si>
+  <si>
+    <t>UNITY</t>
+  </si>
+  <si>
+    <t>XDP</t>
+  </si>
+  <si>
+    <t>XUSD</t>
+  </si>
+  <si>
+    <t>invalid base or rel</t>
+  </si>
+  <si>
+    <t>USDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -278,15 +573,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E122" activeCellId="0" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -536,7 +831,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -545,10 +840,10 @@
       <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -566,7 +861,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -596,7 +891,7 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -626,7 +921,7 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -656,10 +951,10 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -686,10 +981,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -719,7 +1014,7 @@
       <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -728,7 +1023,7 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -743,12 +1038,13 @@
       <c r="I8" s="7" t="n">
         <v>200</v>
       </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -757,7 +1053,7 @@
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -772,12 +1068,13 @@
       <c r="I9" s="7" t="n">
         <v>200</v>
       </c>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -786,7 +1083,7 @@
       <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -801,12 +1098,13 @@
       <c r="I10" s="7" t="n">
         <v>200</v>
       </c>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -815,7 +1113,7 @@
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -830,12 +1128,13 @@
       <c r="I11" s="7" t="n">
         <v>200</v>
       </c>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -844,7 +1143,7 @@
       <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -859,12 +1158,13 @@
       <c r="I12" s="7" t="n">
         <v>200</v>
       </c>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -873,7 +1173,7 @@
       <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -888,12 +1188,13 @@
       <c r="I13" s="7" t="n">
         <v>200</v>
       </c>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -902,7 +1203,7 @@
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -917,14 +1218,3041 @@
       <c r="I14" s="7" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="C16" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="12" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="12" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="12" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J89" s="9"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J90" s="9"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="12" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J91" s="9"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="12" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J92" s="9"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="12" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J93" s="9"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="12" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J94" s="9"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="12" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J95" s="9"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J97" s="9"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="12" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J102" s="9"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="12" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="12" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="12" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="12" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="12" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="12" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="12" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="12" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I113" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="12" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="12" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testdata/datasheet.xlsx
+++ b/testdata/datasheet.xlsx
@@ -5,18 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="750" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sheetVerifytxTest" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="sheetOrderbookTest" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sheetSupports" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="sheetHexTest" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="sheetBase64_EncodeDecodeTest" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="sheetSHA_ConversionsTest" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="sheetRMD_ConversionsTest" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="sheetMD_ConversionsTest" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="sheetTIGER_ConversionsTest" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="sheetWhirlpool_ConversionsTest" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="248">
   <si>
     <t>SerialNo</t>
   </si>
@@ -81,30 +89,45 @@
     <t>NXT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MAID</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>XMR</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>MAID</t>
-  </si>
-  <si>
-    <t>FCT</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>XMR</t>
-  </si>
-  <si>
     <t>BTS</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>RADS</t>
   </si>
   <si>
@@ -415,6 +438,336 @@
   </si>
   <si>
     <t>USDT</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>cant find or create exchange</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>ScenarioType</t>
+  </si>
+  <si>
+    <t>TestScenario</t>
+  </si>
+  <si>
+    <t>I_Message</t>
+  </si>
+  <si>
+    <t>O_Expected</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>4a6f686e00</t>
+  </si>
+  <si>
+    <t>Testing a statement</t>
+  </si>
+  <si>
+    <t>54657374696e6720612073746174656d656e74</t>
+  </si>
+  <si>
+    <t>Testing@lph@numer1c</t>
+  </si>
+  <si>
+    <t>54657374696e67406c7068406e756d65723163</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>31323334353637383930</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;()</t>
+  </si>
+  <si>
+    <t>21402324255e262829</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>“ “</t>
+  </si>
+  <si>
+    <t>UNHEX</t>
+  </si>
+  <si>
+    <t>4a6f686e</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>30003100</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>HEX_TO_UNHEX</t>
+  </si>
+  <si>
+    <t>This is testing</t>
+  </si>
+  <si>
+    <t>UNHEX_TO_HEX</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>BASE64_ENCODE</t>
+  </si>
+  <si>
+    <t>Sm9obg==</t>
+  </si>
+  <si>
+    <t>VGVzdGluZyBhIHN0YXRlbWVudA==</t>
+  </si>
+  <si>
+    <t>VGVzdGluZ0BscGhAbnVtZXIxYw==</t>
+  </si>
+  <si>
+    <t>MTIzNDU2Nzg5MA==</t>
+  </si>
+  <si>
+    <t>IUAjJCVeJigp</t>
+  </si>
+  <si>
+    <t>4oCcIOKAnA==</t>
+  </si>
+  <si>
+    <t>BASE64_DECODE</t>
+  </si>
+  <si>
+    <t>SHA224</t>
+  </si>
+  <si>
+    <t>b4e9ea1eea479dbddc8c7a3e765b045e5bddcb48cd48657536d0291a</t>
+  </si>
+  <si>
+    <t>1402473739c68a40c6bb2912092d0749f1ecad3a07c1a5123d2c2a7b</t>
+  </si>
+  <si>
+    <t>559bf71dea5efc7c6199739b2deef79bd89dc05edf129dde4959b9e0</t>
+  </si>
+  <si>
+    <t>b564e8a5cf20a254eb34e1ae98c3d957c351ce854491ccbeaeb220ea</t>
+  </si>
+  <si>
+    <t>8540704f89b0c5dc66d4befce22c52132eb7021ccb3f988133d0c5d0</t>
+  </si>
+  <si>
+    <t>93f17fb324738855d61f86cae61e6f8c7ba60a7038fea1ad950936c5</t>
+  </si>
+  <si>
+    <t>SHA256</t>
+  </si>
+  <si>
+    <t>a8cfcd74832004951b4408cdb0a5dbcd8c7e52d43f7fe244bf720582e05241da</t>
+  </si>
+  <si>
+    <t>daf32ad533ac9e3728c6638ce3a9387b998fe16c1b78bc0fba2986d253f8b78b</t>
+  </si>
+  <si>
+    <t>4a47d0f2aaec9e2c9fc924a474f5cddff5ae42cb501f3b25d991758347aa2b36</t>
+  </si>
+  <si>
+    <t>c775e7b757ede630cd0aa1113bd102661ab38829ca52a6422ab782862f268646</t>
+  </si>
+  <si>
+    <t>2076d3edf9910b166ebfaa09f4dcb7c41ab300466a75495a4e28286339eb1b39</t>
+  </si>
+  <si>
+    <t>18fd1dd5b772515c478f8bfc1175da6c92ccb6143d26916e9c5ef3e9db4fa574</t>
+  </si>
+  <si>
+    <t>SHA384</t>
+  </si>
+  <si>
+    <t>9db044f2b3b06c6f83e78b491cd6d65b38fa10d9fbb47abca9954ec9524b69fd47dfc327f6c73ef4ea8f53007e66d024</t>
+  </si>
+  <si>
+    <t>6694a692aab979c1355ebf1b12950a50e5870b51a652ae5b224d51a3eba0455c8721821c9cc18f488f06aadd3cc8b819</t>
+  </si>
+  <si>
+    <t>6f33793ae18fe263d7f2c4b62b137350d13d0c48e881c38d3842f55d08ec1d16978142991bb621793b4aaa126ebe4c08</t>
+  </si>
+  <si>
+    <t>ed845f8b4f2a6d5da86a3bec90352d916d6a66e3420d720e16439adf238f129182c8c64fc4ec8c1e6506bc2b4888baf9</t>
+  </si>
+  <si>
+    <t>e0ce354fbd531980aa77eeed40a65c728597fd876bb93f37bace722b2a2d1309e87b66f72d9d8aa5097aafc0c85394b2</t>
+  </si>
+  <si>
+    <t>6149fb9a31e606b0822c23f5440102a674e62e63dc4bab9258b45e037a4980a747bd0b3cace2b873f297efbd60435748</t>
+  </si>
+  <si>
+    <t>SHA512</t>
+  </si>
+  <si>
+    <t>41b6d0cd5ddab15074f88bf1c356e89c3f330771b1c7a0b034bcdaafee74eb2ca2eca502f8c0b04fe5fd2f1ec5ae0197e0c6088f1cef6c07378b7f78bb64d9e4</t>
+  </si>
+  <si>
+    <t>d99f6d124e87fee3d06c7da0e083849f66b4e3cd6ad726a494440baebe73a8521ca849293f8dac8cf3e0f89234f9367c7a4793201c20651d9a531376fb6e570e</t>
+  </si>
+  <si>
+    <t>5de8f6533264622bba30d915a74c779f4559247ceb564eada09b4f4f5898dfa0d9dc681d2680db22396aeb1f1f6267e5f05c5b91ccbc8eb3543e4102cabe2ac5</t>
+  </si>
+  <si>
+    <t>12b03226a6d8be9c6e8cd5e55dc6c7920caaa39df14aab92d5e3ea9340d1c8a4d3d0b8e4314f1f6ef131ba4bf1ceb9186ab87c801af0d5c95b1befb8cedae2b9</t>
+  </si>
+  <si>
+    <t>755c09fd755dad2b14276c51046a12bbaf24bbde95f72682a03921cad0880f25e54d04c8b0ba341d04db3865b1cb84e37b607fd68ee16bae275da1c09cb3dcf9</t>
+  </si>
+  <si>
+    <t>33e378d1c78a20dab140ea3323d4bb1e30a5c48e40a746d4d1ea2c611d5697e621039db55c75d713a682a4b10826b0f8d392c9c966052dfc27592b125de1ef85</t>
+  </si>
+  <si>
+    <t>SHA1</t>
+  </si>
+  <si>
+    <t>5753a498f025464d72e088a9d5d6e872592d5f91</t>
+  </si>
+  <si>
+    <t>706480be2e783bbd107f6aa95733e8cab3851d0b</t>
+  </si>
+  <si>
+    <t>f1c495c409a69fee57029d6bbbcfd1884a75e71b</t>
+  </si>
+  <si>
+    <t>01b307acba4f54f55aafc33bb06bbbf6ca803e9a</t>
+  </si>
+  <si>
+    <t>209937776dd46a2545e7aea63e3d30f3c8fafd9f</t>
+  </si>
+  <si>
+    <t>b87097fc916525fe56a2f122244700a4b1232ccf</t>
+  </si>
+  <si>
+    <t>RMD128</t>
+  </si>
+  <si>
+    <t>b421e0b7fa023a911aed1791a21846c7</t>
+  </si>
+  <si>
+    <t>85ec5aa9cc22acf9c3924ae8a4097c04</t>
+  </si>
+  <si>
+    <t>eb82ed7748180cd257449ac8792778f2</t>
+  </si>
+  <si>
+    <t>6f1921e5d5b0579c737805bd839dc97d</t>
+  </si>
+  <si>
+    <t>761a2cc5addee7014f05c68362b18560</t>
+  </si>
+  <si>
+    <t>0c76ac1cac8cba2f6d24051a136d633d</t>
+  </si>
+  <si>
+    <t>RMD160</t>
+  </si>
+  <si>
+    <t>f6638290b89c224a14b2945fecb0c3c44241a293</t>
+  </si>
+  <si>
+    <t>5300ab23fb97cdfbd84087dfb18a8a137e511b30</t>
+  </si>
+  <si>
+    <t>1b9f0ed20294f7295f06e76cb460470ac47975ae</t>
+  </si>
+  <si>
+    <t>9d752daa3fb4df29837088e1e5a1acf74932e074</t>
+  </si>
+  <si>
+    <t>57c3e6fa6de0f84608d458af8b729c006e5da26d</t>
+  </si>
+  <si>
+    <t>d04e7433ef26460c349daa4a96b0ebf54bc9b2c2</t>
+  </si>
+  <si>
+    <t>RMD256</t>
+  </si>
+  <si>
+    <t>b5e8cf8a4bc8b5f3eb3044403f587067d8ddcab81f3acfd22f25d5f0f9f99e9f</t>
+  </si>
+  <si>
+    <t>d51358288c90263c8a2cbb4da57a99e5662850ce1ade4ea09905cfe21bcb7369</t>
+  </si>
+  <si>
+    <t>2b7bffb1540c25d8d643c463193e81e6fe84038e9ca7b9d8a83f1d2eb13255a8</t>
+  </si>
+  <si>
+    <t>9836cad714a598b572302bb09bd430e94e1f0c294f1b0a94efc32606a964fcf1</t>
+  </si>
+  <si>
+    <t>d3e7b2e7d664889103786ad578ca9de84e33c703fe373bda8e0ffdbb71285db1</t>
+  </si>
+  <si>
+    <t>6a33d7d9fc44444caaf9c4147801b33f39f1fdbb9426148e0eb495209c53ebc6</t>
+  </si>
+  <si>
+    <t>RMD320</t>
+  </si>
+  <si>
+    <t>a3c564d84590630c8c65e2bb19534cd6e47cfd4c6397759cced602a538873623cc515e8a606ec6a1</t>
+  </si>
+  <si>
+    <t>6122cad380cb86947c0a907c4375b4d29ca1a703f44d87eb21c773317b62ea818bc83054832bdfba</t>
+  </si>
+  <si>
+    <t>4d882335aa09d3ebd423cddc85566410db0d11af5918c967f36cd6dae66d2016ddea30d10404486b</t>
+  </si>
+  <si>
+    <t>ad1bcc613104dff743f5b587df9184829af49d259c7783a96a5843f98c6205510bb98754789539f3</t>
+  </si>
+  <si>
+    <t>ea8ef957ba36b160fa65fbb37bd7966ad8613784a4888b3704fa9e12ed0f603fb26d336b386c222a</t>
+  </si>
+  <si>
+    <t>bfd6bc474ef8f10866fd10880a4fb58d22232d8a91389991034ed0b56db3735241b6ce8a86f2da45</t>
+  </si>
+  <si>
+    <t>MD2</t>
+  </si>
+  <si>
+    <t>MD4</t>
+  </si>
+  <si>
+    <t>MD5</t>
+  </si>
+  <si>
+    <t>TIGER192</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
   </si>
 </sst>
 </file>
@@ -426,7 +779,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -470,8 +823,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +847,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9CDE5"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFB9CDE5"/>
       </patternFill>
     </fill>
   </fills>
@@ -532,7 +897,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,6 +948,46 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -778,15 +1183,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E122" activeCellId="0" sqref="E122"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -794,7 +1392,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
     <col collapsed="false" hidden="false" max="9" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.4948979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -847,13 +1445,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -874,16 +1472,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>200</v>
@@ -907,13 +1505,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>200</v>
@@ -934,16 +1532,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>200</v>
@@ -964,16 +1562,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>200</v>
@@ -994,16 +1592,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>200</v>
@@ -1024,16 +1622,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>200</v>
@@ -1054,16 +1652,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>200</v>
@@ -1084,16 +1682,16 @@
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>200</v>
@@ -1114,16 +1712,16 @@
         <v>19</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>200</v>
@@ -1144,16 +1742,16 @@
         <v>19</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="7" t="n">
         <v>200</v>
@@ -1174,16 +1772,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>200</v>
@@ -1204,16 +1802,16 @@
         <v>19</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7" t="n">
         <v>200</v>
@@ -1234,16 +1832,16 @@
         <v>19</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7" t="n">
         <v>200</v>
@@ -1264,16 +1862,16 @@
         <v>19</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7" t="n">
         <v>200</v>
@@ -1294,16 +1892,16 @@
         <v>19</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7" t="n">
         <v>200</v>
@@ -1324,16 +1922,16 @@
         <v>19</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>200</v>
@@ -1354,16 +1952,16 @@
         <v>19</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7" t="n">
         <v>200</v>
@@ -1387,13 +1985,13 @@
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="7" t="n">
         <v>200</v>
@@ -1414,16 +2012,16 @@
         <v>19</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7" t="n">
         <v>200</v>
@@ -1444,16 +2042,16 @@
         <v>19</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7" t="n">
         <v>200</v>
@@ -1474,16 +2072,16 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7" t="n">
         <v>200</v>
@@ -1504,16 +2102,16 @@
         <v>19</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7" t="n">
         <v>200</v>
@@ -1534,16 +2132,16 @@
         <v>19</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="7" t="n">
         <v>200</v>
@@ -1564,16 +2162,16 @@
         <v>19</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="7" t="n">
         <v>200</v>
@@ -1594,16 +2192,16 @@
         <v>19</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7" t="n">
         <v>200</v>
@@ -1624,16 +2222,16 @@
         <v>19</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="7" t="n">
         <v>200</v>
@@ -1654,16 +2252,16 @@
         <v>19</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="7" t="n">
         <v>200</v>
@@ -1684,16 +2282,16 @@
         <v>19</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="7" t="n">
         <v>200</v>
@@ -1714,16 +2312,16 @@
         <v>19</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="7" t="n">
         <v>200</v>
@@ -1744,16 +2342,16 @@
         <v>19</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="7" t="n">
         <v>200</v>
@@ -1774,16 +2372,16 @@
         <v>19</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="7" t="n">
         <v>200</v>
@@ -1804,16 +2402,16 @@
         <v>19</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="7" t="n">
         <v>200</v>
@@ -1834,16 +2432,16 @@
         <v>19</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="7" t="n">
         <v>200</v>
@@ -1864,16 +2462,16 @@
         <v>19</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="7" t="n">
         <v>200</v>
@@ -1894,16 +2492,16 @@
         <v>19</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="7" t="n">
         <v>200</v>
@@ -1924,16 +2522,16 @@
         <v>19</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="7" t="n">
         <v>200</v>
@@ -1954,16 +2552,16 @@
         <v>19</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" s="7" t="n">
         <v>200</v>
@@ -1984,16 +2582,16 @@
         <v>19</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="7" t="n">
         <v>200</v>
@@ -2014,16 +2612,16 @@
         <v>19</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="7" t="n">
         <v>200</v>
@@ -2044,16 +2642,16 @@
         <v>19</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" s="7" t="n">
         <v>200</v>
@@ -2074,16 +2672,16 @@
         <v>19</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" s="7" t="n">
         <v>200</v>
@@ -2104,16 +2702,16 @@
         <v>19</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="7" t="n">
         <v>200</v>
@@ -2134,16 +2732,16 @@
         <v>19</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="7" t="n">
         <v>200</v>
@@ -2164,16 +2762,16 @@
         <v>19</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" s="7" t="n">
         <v>200</v>
@@ -2194,16 +2792,16 @@
         <v>19</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="7" t="n">
         <v>200</v>
@@ -2224,16 +2822,16 @@
         <v>19</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="7" t="n">
         <v>200</v>
@@ -2254,16 +2852,16 @@
         <v>19</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="7" t="n">
         <v>200</v>
@@ -2284,16 +2882,16 @@
         <v>19</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" s="7" t="n">
         <v>200</v>
@@ -2314,16 +2912,16 @@
         <v>19</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" s="7" t="n">
         <v>200</v>
@@ -2344,16 +2942,16 @@
         <v>19</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" s="7" t="n">
         <v>200</v>
@@ -2374,16 +2972,16 @@
         <v>19</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" s="7" t="n">
         <v>200</v>
@@ -2404,16 +3002,16 @@
         <v>19</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" s="7" t="n">
         <v>200</v>
@@ -2434,16 +3032,16 @@
         <v>19</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" s="7" t="n">
         <v>200</v>
@@ -2464,16 +3062,16 @@
         <v>19</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" s="7" t="n">
         <v>200</v>
@@ -2494,16 +3092,16 @@
         <v>19</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" s="7" t="n">
         <v>200</v>
@@ -2524,16 +3122,16 @@
         <v>19</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" s="7" t="n">
         <v>200</v>
@@ -2554,16 +3152,16 @@
         <v>19</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" s="7" t="n">
         <v>200</v>
@@ -2584,16 +3182,16 @@
         <v>19</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60" s="7" t="n">
         <v>200</v>
@@ -2614,16 +3212,16 @@
         <v>19</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" s="7" t="n">
         <v>200</v>
@@ -2644,16 +3242,16 @@
         <v>19</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" s="7" t="n">
         <v>200</v>
@@ -2674,16 +3272,16 @@
         <v>19</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" s="7" t="n">
         <v>200</v>
@@ -2704,16 +3302,16 @@
         <v>19</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" s="7" t="n">
         <v>200</v>
@@ -2734,16 +3332,16 @@
         <v>19</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65" s="7" t="n">
         <v>200</v>
@@ -2764,16 +3362,16 @@
         <v>19</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" s="7" t="n">
         <v>200</v>
@@ -2794,16 +3392,16 @@
         <v>19</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67" s="7" t="n">
         <v>200</v>
@@ -2824,16 +3422,16 @@
         <v>19</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I68" s="7" t="n">
         <v>200</v>
@@ -2854,16 +3452,16 @@
         <v>19</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I69" s="7" t="n">
         <v>200</v>
@@ -2884,16 +3482,16 @@
         <v>19</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I70" s="7" t="n">
         <v>200</v>
@@ -2914,16 +3512,16 @@
         <v>19</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71" s="7" t="n">
         <v>200</v>
@@ -2944,16 +3542,16 @@
         <v>19</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I72" s="7" t="n">
         <v>200</v>
@@ -2974,16 +3572,16 @@
         <v>19</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I73" s="7" t="n">
         <v>200</v>
@@ -3004,16 +3602,16 @@
         <v>19</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I74" s="7" t="n">
         <v>200</v>
@@ -3034,16 +3632,16 @@
         <v>19</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I75" s="7" t="n">
         <v>200</v>
@@ -3064,16 +3662,16 @@
         <v>19</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76" s="7" t="n">
         <v>200</v>
@@ -3094,16 +3692,16 @@
         <v>19</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I77" s="7" t="n">
         <v>200</v>
@@ -3124,16 +3722,16 @@
         <v>19</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I78" s="7" t="n">
         <v>200</v>
@@ -3154,16 +3752,16 @@
         <v>19</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79" s="7" t="n">
         <v>200</v>
@@ -3184,16 +3782,16 @@
         <v>19</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I80" s="7" t="n">
         <v>200</v>
@@ -3214,16 +3812,16 @@
         <v>19</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I81" s="7" t="n">
         <v>200</v>
@@ -3244,16 +3842,16 @@
         <v>19</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" s="7" t="n">
         <v>200</v>
@@ -3274,16 +3872,16 @@
         <v>19</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I83" s="7" t="n">
         <v>200</v>
@@ -3304,16 +3902,16 @@
         <v>19</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I84" s="7" t="n">
         <v>200</v>
@@ -3334,16 +3932,16 @@
         <v>19</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I85" s="7" t="n">
         <v>200</v>
@@ -3364,16 +3962,16 @@
         <v>19</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I86" s="7" t="n">
         <v>200</v>
@@ -3394,16 +3992,16 @@
         <v>19</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I87" s="7" t="n">
         <v>200</v>
@@ -3424,16 +4022,16 @@
         <v>19</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88" s="7" t="n">
         <v>200</v>
@@ -3454,16 +4052,16 @@
         <v>19</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I89" s="7" t="n">
         <v>200</v>
@@ -3484,16 +4082,16 @@
         <v>19</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I90" s="7" t="n">
         <v>200</v>
@@ -3514,16 +4112,16 @@
         <v>19</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I91" s="7" t="n">
         <v>200</v>
@@ -3544,16 +4142,16 @@
         <v>19</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I92" s="7" t="n">
         <v>200</v>
@@ -3574,16 +4172,16 @@
         <v>19</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I93" s="7" t="n">
         <v>200</v>
@@ -3604,16 +4202,16 @@
         <v>19</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I94" s="7" t="n">
         <v>200</v>
@@ -3634,16 +4232,16 @@
         <v>19</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I95" s="7" t="n">
         <v>200</v>
@@ -3664,16 +4262,16 @@
         <v>19</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I96" s="7" t="n">
         <v>200</v>
@@ -3694,16 +4292,16 @@
         <v>19</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I97" s="7" t="n">
         <v>200</v>
@@ -3724,16 +4322,16 @@
         <v>19</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I98" s="7" t="n">
         <v>200</v>
@@ -3754,16 +4352,16 @@
         <v>19</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I99" s="7" t="n">
         <v>200</v>
@@ -3784,16 +4382,16 @@
         <v>19</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I100" s="7" t="n">
         <v>200</v>
@@ -3814,16 +4412,16 @@
         <v>19</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I101" s="7" t="n">
         <v>200</v>
@@ -3844,16 +4442,16 @@
         <v>19</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I102" s="7" t="n">
         <v>200</v>
@@ -3874,16 +4472,16 @@
         <v>19</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I103" s="7" t="n">
         <v>200</v>
@@ -3904,16 +4502,16 @@
         <v>19</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I104" s="7" t="n">
         <v>200</v>
@@ -3934,16 +4532,16 @@
         <v>19</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I105" s="7" t="n">
         <v>200</v>
@@ -3964,16 +4562,16 @@
         <v>19</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I106" s="7" t="n">
         <v>200</v>
@@ -3994,16 +4592,16 @@
         <v>19</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I107" s="7" t="n">
         <v>200</v>
@@ -4024,16 +4622,16 @@
         <v>19</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108" s="7" t="n">
         <v>200</v>
@@ -4054,16 +4652,16 @@
         <v>19</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I109" s="7" t="n">
         <v>200</v>
@@ -4084,16 +4682,16 @@
         <v>19</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I110" s="7" t="n">
         <v>200</v>
@@ -4114,16 +4712,16 @@
         <v>19</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I111" s="7" t="n">
         <v>200</v>
@@ -4144,16 +4742,16 @@
         <v>19</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I112" s="7" t="n">
         <v>200</v>
@@ -4174,16 +4772,16 @@
         <v>19</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I113" s="7" t="n">
         <v>200</v>
@@ -4201,25 +4799,25 @@
         <v>18</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I114" s="7" t="n">
         <v>200</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,26 +4831,3401 @@
         <v>18</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="12" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="12" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="12" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="14" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="14" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="17" width="43.8112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="40.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="17" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.4285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="I115" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H31" s="21"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testdata/datasheet.xlsx
+++ b/testdata/datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="750" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="750" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="sheetVerifytxTest" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,13 +18,18 @@
     <sheet name="sheetMD_ConversionsTest" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="sheetTIGER_ConversionsTest" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="sheetWhirlpool_ConversionsTest" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="sheetHmacSha" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="sheetHmacRmd" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="sheetHmacMd" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="SheetHmacTiger" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="sheetHmacWhirlpool" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="250">
   <si>
     <t>SerialNo</t>
   </si>
@@ -768,6 +773,12 @@
   </si>
   <si>
     <t>WHIRLPOOL</t>
+  </si>
+  <si>
+    <t>I_passphrase</t>
+  </si>
+  <si>
+    <t>The quick brown fox jumps over the lazy dog</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1081,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1190,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="D3:D7 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1364,6 +1375,2377 @@
         <v>200</v>
       </c>
       <c r="H7" s="21"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="1" sqref="D3:D7 F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="58.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="D3:D7 D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="58.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D7 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="58.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="D3:D7 E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1384,7 +3766,7 @@
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5111,7 +7493,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="D3:D7 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5343,7 +7725,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="D3:D7 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5835,7 +8217,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6178,7 +8560,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6959,7 +9341,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="D3:D7 A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7596,7 +9978,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="1" sqref="D3:D7 F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8053,7 +10435,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D3:D7 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
